--- a/Migrade_v.1.2/media/excel-files/SF9_Grade1.xlsx
+++ b/Migrade_v.1.2/media/excel-files/SF9_Grade1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelo\Documents\GitHub\ces_migrade\MiGrade\Migrade_v.1.2\media\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659BE026-EDE9-4ACA-B788-2354DC6F8CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B286BCF3-5623-49F1-9E84-C9A463F64F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRONT" sheetId="149" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>Final Rating</t>
-  </si>
-  <si>
     <t>Core Values</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Mother Tongue</t>
+  </si>
+  <si>
+    <t>Final Grade</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -929,6 +929,57 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,296 +1161,249 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2050,13 +2054,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>374431</xdr:colOff>
+      <xdr:colOff>465543</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>177362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>540549</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18748</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>179219</xdr:rowOff>
     </xdr:to>
@@ -2073,8 +2077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5583621" y="5235465"/>
-          <a:ext cx="1387945" cy="1857"/>
+          <a:off x="5683586" y="5204905"/>
+          <a:ext cx="1391945" cy="1857"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2836,8 +2840,8 @@
   <sheetPr codeName="Sheet128"/>
   <dimension ref="A3:AC50"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E13" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2860,20 +2864,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
       <c r="O3" s="15"/>
       <c r="P3" s="29"/>
       <c r="Q3" s="15"/>
@@ -2883,7 +2887,7 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1">
-      <c r="A4" s="91"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -2896,44 +2900,44 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
-      <c r="O4" s="99"/>
+      <c r="O4" s="118"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
+      <c r="Q4" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
-      <c r="O5" s="99"/>
+      <c r="O5" s="118"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="104" t="s">
+      <c r="Q5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="91"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -2947,109 +2951,109 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6"/>
-      <c r="O6" s="99"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1">
+      <c r="A7" s="111"/>
+      <c r="B7" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="118"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="49" t="s">
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" customHeight="1">
+      <c r="A8" s="112"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
     </row>
     <row r="9" spans="1:23" ht="3.75" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="96"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="115"/>
       <c r="O9" s="17"/>
-      <c r="P9" s="98"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -3057,43 +3061,43 @@
       <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="96"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="115"/>
       <c r="O10" s="17"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
       <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="97"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="116"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="20"/>
@@ -3103,47 +3107,47 @@
       <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A12" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="54"/>
+      <c r="A12" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="17"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
+      <c r="Q12" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="55"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="74"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -3153,22 +3157,22 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="10.5" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="55"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="74"/>
       <c r="P14" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -3178,22 +3182,22 @@
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:23" ht="11.25" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="56"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="75"/>
       <c r="P15" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -3203,29 +3207,29 @@
       <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="57"/>
+      <c r="A16" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="76"/>
       <c r="P16" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
@@ -3233,49 +3237,49 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="58"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="77"/>
       <c r="P17" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
     </row>
     <row r="18" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="58"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="77"/>
       <c r="P18" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -3285,20 +3289,20 @@
       <c r="V18" s="20"/>
     </row>
     <row r="19" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="59"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="78"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
@@ -3307,46 +3311,46 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A20" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="54"/>
-      <c r="P20" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="101"/>
+      <c r="A20" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="73"/>
+      <c r="P20" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="120"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="55"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="74"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -3354,7 +3358,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f>IFERROR(VLOOKUP(W9,data,10,FALSE),"not found")</f>
@@ -3364,22 +3368,22 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="55"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="74"/>
       <c r="P22" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
@@ -3388,7 +3392,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="X22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y22" s="2" t="e">
         <f>#REF!</f>
@@ -3396,22 +3400,22 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="55"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="74"/>
       <c r="P23" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="42"/>
       <c r="R23" s="43"/>
@@ -3421,7 +3425,7 @@
       <c r="V23" s="43"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y23" s="2" t="e">
         <f>#REF!</f>
@@ -3431,22 +3435,22 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="56"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="75"/>
       <c r="P24" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
@@ -3455,10 +3459,10 @@
       <c r="U24" s="43"/>
       <c r="V24" s="43"/>
       <c r="X24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="7.5" customHeight="1">
@@ -3475,18 +3479,18 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="P25" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
+      <c r="P25" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
       <c r="S25" s="43"/>
       <c r="T25" s="43"/>
       <c r="U25" s="43"/>
       <c r="V25" s="43"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y25" s="2" t="e">
         <f>#REF!</f>
@@ -3496,16 +3500,16 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
       <c r="S26" s="44"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y26" s="2" t="e">
         <f>#REF!</f>
@@ -3515,15 +3519,15 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="72" t="s">
+      <c r="T27" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -3531,25 +3535,25 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="B28" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="P28" s="72" t="s">
+      <c r="B28" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="P28" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
       <c r="S28" s="21"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -3573,30 +3577,30 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:27" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A30" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
+      <c r="A30" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
       <c r="O30" s="3"/>
-      <c r="Q30" s="88" t="s">
+      <c r="Q30" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
     </row>
     <row r="31" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="O31" s="3"/>
@@ -3614,34 +3618,34 @@
       <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="1:27" ht="18" customHeight="1">
-      <c r="A32" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
+      <c r="A32" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="87" t="s">
+      <c r="P32" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
       <c r="W32" s="9"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -3650,15 +3654,15 @@
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
       <c r="O33" s="1"/>
-      <c r="P33" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
+      <c r="P33" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
       <c r="W33" s="3"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -3680,14 +3684,14 @@
     </row>
     <row r="35" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="P35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -3697,25 +3701,25 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:29" ht="12" customHeight="1">
-      <c r="A36" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
+      <c r="A36" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
       <c r="W36" s="3"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -3723,15 +3727,15 @@
       <c r="AA36" s="9"/>
     </row>
     <row r="37" spans="1:29" ht="14.25" customHeight="1">
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="72" t="s">
+      <c r="T37" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
       <c r="W37" s="2"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -3741,27 +3745,27 @@
       <c r="AC37" s="7"/>
     </row>
     <row r="38" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A38" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="P38" s="102" t="s">
+      <c r="A38" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="P38" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
@@ -3778,13 +3782,13 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="Q40" s="88" t="s">
+      <c r="Q40" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
       <c r="V40" s="4"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -3803,7 +3807,7 @@
     </row>
     <row r="42" spans="1:29" ht="18">
       <c r="P42" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
@@ -3820,15 +3824,15 @@
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" ht="18">
-      <c r="P43" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
+      <c r="P43" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="110"/>
+      <c r="V43" s="110"/>
       <c r="W43" s="16"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
@@ -3840,11 +3844,11 @@
     <row r="44" spans="1:29" ht="18">
       <c r="P44" s="12"/>
       <c r="S44" s="18"/>
-      <c r="T44" s="72" t="s">
+      <c r="T44" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
       <c r="W44" s="23"/>
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
@@ -3896,7 +3900,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="91">
+  <mergeCells count="92">
     <mergeCell ref="Q40:U40"/>
     <mergeCell ref="P43:S43"/>
     <mergeCell ref="Q10:T10"/>
@@ -3931,12 +3935,13 @@
     <mergeCell ref="T26:V26"/>
     <mergeCell ref="P25:R26"/>
     <mergeCell ref="B28:M28"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="P33:V33"/>
     <mergeCell ref="Q30:U30"/>
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="A32:N32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="S33:V33"/>
     <mergeCell ref="T44:V44"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="C7:C11"/>
@@ -4002,8 +4007,8 @@
   <sheetPr codeName="Sheet127"/>
   <dimension ref="A3:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4029,45 +4034,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="U3" s="152" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="U3" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="186"/>
     </row>
     <row r="4" spans="1:29" ht="17.25" customHeight="1"/>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -4078,64 +4083,64 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="154" t="s">
+      <c r="N5" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="156" t="s">
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="190" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="192" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="158" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="154" t="s">
+      <c r="V5" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="154" t="s">
+      <c r="W5" s="188"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="154"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="K6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>75</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>76</v>
       </c>
       <c r="N6" s="40">
         <v>1</v>
@@ -4149,12 +4154,12 @@
       <c r="Q6" s="39">
         <v>4</v>
       </c>
-      <c r="R6" s="157"/>
-      <c r="S6" s="159"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="193"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
       <c r="Y6" s="40">
         <v>1</v>
       </c>
@@ -4169,11 +4174,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="151" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
+      <c r="A7" s="200" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="35" t="e">
         <f>IF(#REF!="GRADE-7","FILIPINO7",IF(#REF!="GRADE-8","FILIPINO8",IF(#REF!="GRADE-9","FILIPINO9",IF(#REF!="GRADE-10","FILIPINO10",""))))</f>
         <v>#REF!</v>
@@ -4221,26 +4226,26 @@
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="137"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
+      <c r="U7" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="177" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="178"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="151"/>
       <c r="AC7" s="22"/>
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A8" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
+      <c r="A8" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="35" t="e">
         <f>IF(#REF!="GRADE-7","ENGLISH7",IF(#REF!="GRADE-8","ENGLISH8",IF(#REF!="GRADE-9","ENGLISH9",IF(#REF!="GRADE-10","ENGLISH10",""))))</f>
         <v>#REF!</v>
@@ -4281,122 +4286,122 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N8" s="191"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="180"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
     </row>
     <row r="9" spans="1:29" ht="8.25" customHeight="1">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="169"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="166" t="e">
+        <f>IF(#REF!="GRADE-7","MATHEMATICS7",IF(#REF!="GRADE-8","MATHEMATICS8",IF(#REF!="GRADE-9","MATHEMATICS9",IF(#REF!="GRADE-10","MATHEMATICS10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="125" t="e">
+        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="125" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="185"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+    </row>
+    <row r="10" spans="1:29" ht="6.75" customHeight="1">
+      <c r="A10" s="171"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="178"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+    </row>
+    <row r="11" spans="1:29" ht="17.25" customHeight="1">
+      <c r="A11" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="161" t="e">
-        <f>IF(#REF!="GRADE-7","MATHEMATICS7",IF(#REF!="GRADE-8","MATHEMATICS8",IF(#REF!="GRADE-9","MATHEMATICS9",IF(#REF!="GRADE-10","MATHEMATICS10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="107" t="e">
-        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="107" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="192"/>
-      <c r="O9" s="192"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
-      <c r="AB9" s="133"/>
-    </row>
-    <row r="10" spans="1:29" ht="6.75" customHeight="1">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="137"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A11" s="160" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="35" t="e">
         <f>IF(#REF!="GRADE-7","SCIENCE7",IF(#REF!="GRADE-8","SCIENCE8",IF(#REF!="GRADE-9","SCIENCE9",IF(#REF!="GRADE-10","SCIENCE10",""))))</f>
         <v>#REF!</v>
@@ -4444,21 +4449,21 @@
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="31"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="180"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1">
-      <c r="A12" s="172" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
+      <c r="A12" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
       <c r="D12" s="35" t="e">
         <f>IF(#REF!="GRADE-7","AP7",IF(#REF!="GRADE-8","AP8",IF(#REF!="GRADE-9","AP9",IF(#REF!="GRADE-10","AP10",""))))</f>
         <v>#REF!</v>
@@ -4506,339 +4511,339 @@
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="31"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="143"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="112"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
     </row>
     <row r="13" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="134"/>
-      <c r="U13" s="113" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="161"/>
+      <c r="U13" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="122" t="s">
+      <c r="W13" s="143"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+    </row>
+    <row r="14" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A14" s="159"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="162"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1">
+      <c r="A15" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="202"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="153"/>
+    </row>
+    <row r="16" spans="1:29" ht="15" customHeight="1">
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="123"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-    </row>
-    <row r="14" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A14" s="173"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="180"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="W16" s="143"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+    </row>
+    <row r="17" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A17" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="181"/>
-      <c r="S15" s="182"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="133"/>
-      <c r="Z15" s="133"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="133"/>
-    </row>
-    <row r="16" spans="1:29" ht="15" customHeight="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="184"/>
-      <c r="T16" s="167"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="122" t="s">
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="50" t="e">
+        <f>IF(#REF!="GRADE-7","MAPEH7",IF(#REF!="GRADE-8","MAPEH8",IF(#REF!="GRADE-9","MAPEH9",IF(#REF!="GRADE-10","MAPEH10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="50" t="e">
+        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+    </row>
+    <row r="18" spans="1:28" ht="17.25" customHeight="1">
+      <c r="A18" s="194" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="52" t="e">
+        <f>IF(#REF!="GRADE-7","MUSIC7",IF(#REF!="GRADE-8","MUSIC8",IF(#REF!="GRADE-9","MUSIC9",IF(#REF!="GRADE-10","MUSIC10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="52" t="e">
+        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="123"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="112"/>
-      <c r="AA16" s="112"/>
-      <c r="AB16" s="112"/>
-    </row>
-    <row r="17" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A17" s="176" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="168" t="e">
-        <f>IF(#REF!="GRADE-7","MAPEH7",IF(#REF!="GRADE-8","MAPEH8",IF(#REF!="GRADE-9","MAPEH9",IF(#REF!="GRADE-10","MAPEH10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="168" t="e">
+      <c r="V18" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" s="137"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+    </row>
+    <row r="19" spans="1:28" ht="23.25" customHeight="1">
+      <c r="A19" s="195" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="195"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="52" t="e">
+        <f>IF(#REF!="GRADE-7","ARTS7",IF(#REF!="GRADE-8","ARTS8",IF(#REF!="GRADE-9","ARTS9",IF(#REF!="GRADE-10","ARTS10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J19" s="52" t="e">
         <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="K17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="179"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="112"/>
-    </row>
-    <row r="18" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A18" s="177" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="170" t="e">
-        <f>IF(#REF!="GRADE-7","MUSIC7",IF(#REF!="GRADE-8","MUSIC8",IF(#REF!="GRADE-9","MUSIC9",IF(#REF!="GRADE-10","MUSIC10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="170" t="e">
-        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="188"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="V18" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="117"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-    </row>
-    <row r="19" spans="1:28" ht="23.25" customHeight="1">
-      <c r="A19" s="178" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="170" t="e">
-        <f>IF(#REF!="GRADE-7","ARTS7",IF(#REF!="GRADE-8","ARTS8",IF(#REF!="GRADE-9","ARTS9",IF(#REF!="GRADE-10","ARTS10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="168" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="170" t="e">
-        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M19" s="170" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="189"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="167"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112"/>
-      <c r="AB19" s="112"/>
+      <c r="K19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
     </row>
     <row r="20" spans="1:28" ht="27" customHeight="1">
-      <c r="A20" s="202" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="124"/>
+      <c r="A20" s="196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="38" t="e">
         <f>IF(#REF!="GRADE-7","PE7",IF(#REF!="GRADE-8","PE8",IF(#REF!="GRADE-9","PE9",IF(#REF!="GRADE-10","PE10",""))))</f>
         <v>#REF!</v>
@@ -4884,241 +4889,241 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="R20" s="46"/>
-      <c r="S20" s="194"/>
+      <c r="S20" s="61"/>
       <c r="T20" s="36"/>
-      <c r="U20" s="113" t="s">
+      <c r="U20" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="V20" s="116" t="s">
+      <c r="W20" s="137"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+    </row>
+    <row r="21" spans="1:28" ht="33" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="63" t="e">
+        <f>IF(#REF!="GRADE-7","HEALTH7",IF(#REF!="GRADE-8","HEALTH8",IF(#REF!="GRADE-9","HEALTH9",IF(#REF!="GRADE-10","HEALTH10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="47" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="63" t="e">
+        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="63" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="117"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="112"/>
-    </row>
-    <row r="21" spans="1:28" ht="33" customHeight="1">
-      <c r="A21" s="203"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198" t="e">
-        <f>IF(#REF!="GRADE-7","HEALTH7",IF(#REF!="GRADE-8","HEALTH8",IF(#REF!="GRADE-9","HEALTH9",IF(#REF!="GRADE-10","HEALTH10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="47" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="198" t="e">
-        <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M21" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" s="106" t="s">
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+    </row>
+    <row r="22" spans="1:28" ht="27" customHeight="1">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="64"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="195"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="112"/>
-    </row>
-    <row r="22" spans="1:28" ht="27" customHeight="1">
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="200"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="201"/>
-      <c r="S22" s="199"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="117"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="112"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
     </row>
     <row r="23" spans="1:28" ht="27" customHeight="1">
-      <c r="U23" s="115"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="112"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
     </row>
     <row r="24" spans="1:28" ht="15" customHeight="1">
       <c r="A24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105" t="s">
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="S24" s="105"/>
+      <c r="S24" s="131"/>
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1">
       <c r="A25" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="102" t="s">
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102" t="s">
+      <c r="S25" s="121"/>
+      <c r="V25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="S25" s="102"/>
-      <c r="V25" s="22" t="s">
+      <c r="X25" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="X25" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1">
       <c r="A26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="121"/>
+      <c r="V26" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="102"/>
-      <c r="V26" s="31" t="s">
+      <c r="X26" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="X26" s="32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1">
       <c r="A27" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="102" t="s">
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="121"/>
+      <c r="V27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="S27" s="102"/>
-      <c r="V27" s="31" t="s">
+      <c r="X27" s="32" t="s">
         <v>45</v>
-      </c>
-      <c r="X27" s="32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1">
       <c r="A28" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="102" t="s">
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="121"/>
+      <c r="V28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="102"/>
-      <c r="V28" s="31" t="s">
+      <c r="X28" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="X28" s="32" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15" customHeight="1">
       <c r="A29" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="102" t="s">
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102" t="s">
+      <c r="S29" s="121"/>
+      <c r="V29" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="102"/>
-      <c r="V29" s="31" t="s">
+      <c r="X29" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="X29" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5132,8 +5137,12 @@
     <mergeCell ref="U7:U12"/>
     <mergeCell ref="V7:X9"/>
     <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="K15:K16"/>
     <mergeCell ref="A3:S3"/>
     <mergeCell ref="U3:AB3"/>
     <mergeCell ref="A5:C6"/>
@@ -5152,7 +5161,6 @@
     <mergeCell ref="Y10:Y12"/>
     <mergeCell ref="Z10:Z12"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A9:C10"/>
     <mergeCell ref="N9:N10"/>
@@ -5165,8 +5173,8 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="V10:X12"/>
-    <mergeCell ref="Z13:Z15"/>
-    <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="AA7:AA9"/>
     <mergeCell ref="AB13:AB15"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="S15:S16"/>
@@ -5187,6 +5195,8 @@
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="A15:C16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="Z18:Z19"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
@@ -5209,7 +5219,8 @@
     <mergeCell ref="U18:U19"/>
     <mergeCell ref="V18:X19"/>
     <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="Z13:Z15"/>
+    <mergeCell ref="AA13:AA15"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="R28:S28"/>
@@ -5220,12 +5231,6 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="N26:Q26"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="K15:K16"/>
     <mergeCell ref="N27:Q27"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N22:Q22"/>
